--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-412646.6474691189</v>
+        <v>-415347.8641205759</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>232.2791855053265</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>92.07720442932821</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15.12707217223181</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>65.40222883394038</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>118.0323369694521</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>211.3475105399923</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>83.94598711515049</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>383.6877278154307</v>
+        <v>383.6877278154321</v>
       </c>
       <c r="G5" t="n">
-        <v>383.6877278154307</v>
+        <v>383.6877278154321</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>339.7095084030029</v>
       </c>
     </row>
     <row r="6">
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>33.11785494990842</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333225</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951724</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713863</v>
+        <v>4.360182258713721</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>193.9455960238325</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>53.06081610905185</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>69.6318844163476</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643578</v>
+        <v>1.905236112643436</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>109.6071620295087</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>339.6826786843737</v>
       </c>
       <c r="H8" t="n">
-        <v>28.86730962794999</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>162.8488061766263</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.4354837911173</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>350.1334328828773</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>261.230102162044</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530792</v>
+        <v>10.48847705530791</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69.90360904570396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>111.9574591993845</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
@@ -1546,7 +1546,7 @@
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927376</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905241</v>
+        <v>79.8133067990524</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126643</v>
       </c>
       <c r="T16" t="n">
-        <v>178.5134655978075</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>6.43453821042594</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>82.47290449300763</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703264</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>22.61263105777448</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>252.7992192086114</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>262.691911950017</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428175</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766857</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673025</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>229.2938944146489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833807</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179773</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085811985</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428175</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.4778634388466</v>
+        <v>380.4820441686402</v>
       </c>
       <c r="C2" t="n">
-        <v>788.4778634388466</v>
+        <v>380.4820441686402</v>
       </c>
       <c r="D2" t="n">
-        <v>788.4778634388466</v>
+        <v>380.4820441686402</v>
       </c>
       <c r="E2" t="n">
-        <v>788.4778634388466</v>
+        <v>380.4820441686402</v>
       </c>
       <c r="F2" t="n">
-        <v>553.8524235344764</v>
+        <v>114.1043876014621</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358183</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358183</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358183</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388466</v>
+        <v>380.4820441686402</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388466</v>
+        <v>380.4820441686402</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591.5675658110954</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="C3" t="n">
-        <v>591.5675658110954</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="D3" t="n">
-        <v>442.6331561498441</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="E3" t="n">
-        <v>283.3957011443886</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="F3" t="n">
-        <v>136.8611431712736</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
-        <v>136.8611431712736</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>36.37698128116273</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428381</v>
+        <v>808.3837902496286</v>
       </c>
       <c r="V3" t="n">
-        <v>591.5675658110954</v>
+        <v>742.3209328416081</v>
       </c>
       <c r="W3" t="n">
-        <v>591.5675658110954</v>
+        <v>742.3209328416081</v>
       </c>
       <c r="X3" t="n">
-        <v>591.5675658110954</v>
+        <v>534.4694326360752</v>
       </c>
       <c r="Y3" t="n">
-        <v>591.5675658110954</v>
+        <v>326.7091338711213</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>478.0368704432898</v>
+        <v>634.5861515377562</v>
       </c>
       <c r="C4" t="n">
-        <v>358.8122876458634</v>
+        <v>634.5861515377562</v>
       </c>
       <c r="D4" t="n">
-        <v>358.8122876458634</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
-        <v>358.8122876458634</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8122876458634</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2429270008669</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375339</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.182233022705</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>848.0684854165363</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407075</v>
+        <v>848.0684854165363</v>
       </c>
       <c r="U4" t="n">
-        <v>926.0629918407075</v>
+        <v>848.0684854165363</v>
       </c>
       <c r="V4" t="n">
-        <v>926.0629918407075</v>
+        <v>848.0684854165363</v>
       </c>
       <c r="W4" t="n">
-        <v>659.6853352735295</v>
+        <v>848.0684854165363</v>
       </c>
       <c r="X4" t="n">
-        <v>659.6853352735295</v>
+        <v>634.5861515377562</v>
       </c>
       <c r="Y4" t="n">
-        <v>659.6853352735295</v>
+        <v>634.5861515377562</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1203.688023918152</v>
+        <v>1191.609993682938</v>
       </c>
       <c r="C5" t="n">
-        <v>1203.688023918152</v>
+        <v>1191.609993682938</v>
       </c>
       <c r="D5" t="n">
-        <v>1118.894097539212</v>
+        <v>1191.609993682938</v>
       </c>
       <c r="E5" t="n">
-        <v>1118.894097539212</v>
+        <v>805.8217410846935</v>
       </c>
       <c r="F5" t="n">
-        <v>731.3307361094843</v>
+        <v>418.258379654964</v>
       </c>
       <c r="G5" t="n">
-        <v>343.7673746797562</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523446</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523446</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275135</v>
+        <v>93.76641159275164</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245559</v>
+        <v>239.0325989245566</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825627</v>
+        <v>456.1499114825644</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748854</v>
+        <v>729.4041931748878</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202379</v>
+        <v>1011.693823202382</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798412</v>
+        <v>1264.916654798416</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189409</v>
+        <v>1446.535482189414</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261723</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261723</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261723</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261723</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261723</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="V5" t="n">
-        <v>1203.688023918152</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="W5" t="n">
-        <v>1203.688023918152</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="X5" t="n">
-        <v>1203.688023918152</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="Y5" t="n">
-        <v>1203.688023918152</v>
+        <v>1191.609993682938</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201.3196966998291</v>
+        <v>610.996104662436</v>
       </c>
       <c r="C6" t="n">
-        <v>201.3196966998291</v>
+        <v>610.996104662436</v>
       </c>
       <c r="D6" t="n">
-        <v>167.8673179625478</v>
+        <v>462.0616950011848</v>
       </c>
       <c r="E6" t="n">
-        <v>167.8673179625478</v>
+        <v>302.8242399957293</v>
       </c>
       <c r="F6" t="n">
-        <v>167.8673179625478</v>
+        <v>302.8242399957293</v>
       </c>
       <c r="G6" t="n">
-        <v>30.69501822523446</v>
+        <v>165.6519402584159</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523446</v>
+        <v>67.33488162878734</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523446</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563417</v>
+        <v>57.96565423024397</v>
       </c>
       <c r="K6" t="n">
-        <v>159.6385680169445</v>
+        <v>168.1621611715547</v>
       </c>
       <c r="L6" t="n">
-        <v>354.1339118482964</v>
+        <v>362.6575050029071</v>
       </c>
       <c r="M6" t="n">
-        <v>600.4576725190421</v>
+        <v>608.9812656736535</v>
       </c>
       <c r="N6" t="n">
-        <v>867.7095350912643</v>
+        <v>876.2331282458765</v>
       </c>
       <c r="O6" t="n">
-        <v>1098.496575411392</v>
+        <v>1098.496575411395</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948668</v>
+        <v>1478.347425948673</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261723</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757972</v>
+        <v>1530.346686757977</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.346686757972</v>
+        <v>1530.346686757977</v>
       </c>
       <c r="T6" t="n">
-        <v>1334.442044309656</v>
+        <v>1334.442044309661</v>
       </c>
       <c r="U6" t="n">
-        <v>1106.32096063026</v>
+        <v>1280.845260361124</v>
       </c>
       <c r="V6" t="n">
-        <v>871.1688523985174</v>
+        <v>1280.845260361124</v>
       </c>
       <c r="W6" t="n">
-        <v>616.9314956703158</v>
+        <v>1026.607903632923</v>
       </c>
       <c r="X6" t="n">
-        <v>409.079995464783</v>
+        <v>818.7564034273898</v>
       </c>
       <c r="Y6" t="n">
-        <v>201.3196966998291</v>
+        <v>610.996104662436</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.6723214873393</v>
+        <v>271.3359782932224</v>
       </c>
       <c r="C7" t="n">
-        <v>182.7361385594324</v>
+        <v>271.3359782932224</v>
       </c>
       <c r="D7" t="n">
-        <v>32.61949914709666</v>
+        <v>271.3359782932224</v>
       </c>
       <c r="E7" t="n">
-        <v>32.61949914709666</v>
+        <v>201.0007415090329</v>
       </c>
       <c r="F7" t="n">
-        <v>32.61949914709666</v>
+        <v>201.0007415090329</v>
       </c>
       <c r="G7" t="n">
-        <v>32.61949914709666</v>
+        <v>32.61949914709663</v>
       </c>
       <c r="H7" t="n">
-        <v>32.61949914709666</v>
+        <v>32.61949914709663</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709666</v>
+        <v>32.61949914709663</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523446</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223266</v>
+        <v>157.432275622327</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830388</v>
+        <v>375.1387655830395</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388152</v>
+        <v>615.0688576388161</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974824</v>
+        <v>854.7285647974836</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891672</v>
+        <v>1060.076798891673</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934022</v>
+        <v>1212.267005934023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495184</v>
+        <v>1234.200536495186</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495184</v>
+        <v>1234.200536495186</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495184</v>
+        <v>1234.200536495186</v>
       </c>
       <c r="T7" t="n">
-        <v>1234.200536495184</v>
+        <v>1009.53527837173</v>
       </c>
       <c r="U7" t="n">
-        <v>945.0606656715554</v>
+        <v>1009.53527837173</v>
       </c>
       <c r="V7" t="n">
-        <v>690.3761774656685</v>
+        <v>1009.53527837173</v>
       </c>
       <c r="W7" t="n">
-        <v>579.6618723853567</v>
+        <v>720.1181083347699</v>
       </c>
       <c r="X7" t="n">
-        <v>351.6723214873393</v>
+        <v>492.1285574367525</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.6723214873393</v>
+        <v>271.3359782932224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>861.3216348137591</v>
+        <v>1467.671350819694</v>
       </c>
       <c r="C8" t="n">
-        <v>861.3216348137591</v>
+        <v>1467.671350819694</v>
       </c>
       <c r="D8" t="n">
-        <v>503.0559362070086</v>
+        <v>1109.405652212943</v>
       </c>
       <c r="E8" t="n">
-        <v>503.0559362070086</v>
+        <v>1109.405652212943</v>
       </c>
       <c r="F8" t="n">
-        <v>92.07003141740108</v>
+        <v>698.4197474233356</v>
       </c>
       <c r="G8" t="n">
-        <v>80.40568518209402</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800312</v>
@@ -4835,19 +4835,19 @@
         <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664336</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320765</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.926725050651</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.460966789571</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="Y8" t="n">
-        <v>861.3216348137591</v>
+        <v>1467.671350819694</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4881,25 +4881,25 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429764</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744481</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.02341329261</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400156</v>
@@ -4920,10 +4920,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>621.6669618009208</v>
       </c>
       <c r="C10" t="n">
-        <v>349.276519562732</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800312</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800312</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1471.952376461744</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1217.267888255857</v>
+        <v>621.6669618009208</v>
       </c>
       <c r="W10" t="n">
-        <v>927.850718218896</v>
+        <v>621.6669618009208</v>
       </c>
       <c r="X10" t="n">
-        <v>699.8611673208786</v>
+        <v>621.6669618009208</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8611673208786</v>
+        <v>621.6669618009208</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1958.84003284531</v>
+        <v>1789.352881002865</v>
       </c>
       <c r="C11" t="n">
-        <v>1589.877515904898</v>
+        <v>1789.352881002865</v>
       </c>
       <c r="D11" t="n">
-        <v>1231.611817298148</v>
+        <v>1431.087182396115</v>
       </c>
       <c r="E11" t="n">
-        <v>845.8235646999037</v>
+        <v>1045.298929797871</v>
       </c>
       <c r="F11" t="n">
-        <v>492.1534304747752</v>
+        <v>634.3130250082629</v>
       </c>
       <c r="G11" t="n">
-        <v>77.53766591592071</v>
+        <v>370.4442349455922</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592071</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592071</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656962</v>
+        <v>695.1615405656956</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625328</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.95612308783</v>
       </c>
       <c r="N11" t="n">
         <v>2455.600890484042</v>
@@ -5057,7 +5057,7 @@
         <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479993</v>
+        <v>3493.127967479994</v>
       </c>
       <c r="Q11" t="n">
         <v>3789.74982946406</v>
@@ -5069,22 +5069,22 @@
         <v>3876.883295796035</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.9046893774</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498928</v>
+        <v>3623.389353917563</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.347860155357</v>
+        <v>3292.326466573993</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.579204885244</v>
+        <v>2939.557811303878</v>
       </c>
       <c r="X11" t="n">
-        <v>2735.579204885244</v>
+        <v>2566.092053042798</v>
       </c>
       <c r="Y11" t="n">
-        <v>2345.439872909432</v>
+        <v>2175.952721066987</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5106,34 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390848</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592071</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J12" t="n">
-        <v>163.8264199621937</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>440.7623243798179</v>
+        <v>470.7769964046655</v>
       </c>
       <c r="L12" t="n">
-        <v>859.4593650377693</v>
+        <v>889.4740370626171</v>
       </c>
       <c r="M12" t="n">
-        <v>1367.415930994297</v>
+        <v>1397.430603019145</v>
       </c>
       <c r="N12" t="n">
-        <v>1903.225240695507</v>
+        <v>1933.239912720355</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.16628502803</v>
+        <v>2014.935408783255</v>
       </c>
       <c r="P12" t="n">
         <v>2371.16628502803</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1094.452541682644</v>
+        <v>762.6212038156455</v>
       </c>
       <c r="C13" t="n">
-        <v>925.5163587547371</v>
+        <v>593.6850208877386</v>
       </c>
       <c r="D13" t="n">
-        <v>775.3997193424013</v>
+        <v>480.5966782620977</v>
       </c>
       <c r="E13" t="n">
-        <v>627.4866257600082</v>
+        <v>480.5966782620977</v>
       </c>
       <c r="F13" t="n">
-        <v>480.5966782620978</v>
+        <v>480.5966782620977</v>
       </c>
       <c r="G13" t="n">
-        <v>313.0986950732861</v>
+        <v>313.098695073286</v>
       </c>
       <c r="H13" t="n">
         <v>168.7028415717528</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J13" t="n">
         <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.1690246648141</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344808</v>
+        <v>710.5788654344806</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
@@ -5239,10 +5239,10 @@
         <v>1393.051798687433</v>
       </c>
       <c r="X13" t="n">
-        <v>1165.062247789416</v>
+        <v>1165.062247789415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.062247789416</v>
+        <v>944.2696686458852</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>727.9786782557276</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>559.0424953278207</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>408.9258559154849</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330918</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>261.0127623330918</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2411.187623003224</v>
       </c>
       <c r="T16" t="n">
-        <v>2083.791617318188</v>
+        <v>2191.586158026165</v>
       </c>
       <c r="U16" t="n">
-        <v>1794.716390662386</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>909.6271430859673</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327642</v>
+        <v>733.4550657171297</v>
       </c>
       <c r="C19" t="n">
-        <v>763.7541388327642</v>
+        <v>564.5188827892229</v>
       </c>
       <c r="D19" t="n">
-        <v>613.6374994204284</v>
+        <v>414.4022433768871</v>
       </c>
       <c r="E19" t="n">
-        <v>465.7244058380353</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>318.8344583401249</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831764</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1135.896109690899</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630038</v>
+        <v>915.1035305473695</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.853600740071</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121641</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121641</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121641</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121641</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138409</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703107</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>491.0125592675713</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675713</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851782</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851782</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,13 +6163,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>719.5738700011933</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="C28" t="n">
-        <v>550.637687073287</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1789.154037582741</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1534.469549376854</v>
       </c>
       <c r="W28" t="n">
-        <v>1168.356000042741</v>
+        <v>1245.052379339893</v>
       </c>
       <c r="X28" t="n">
-        <v>940.3664491447234</v>
+        <v>1017.062828441876</v>
       </c>
       <c r="Y28" t="n">
-        <v>719.5738700011933</v>
+        <v>796.270249298346</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6610,22 +6610,22 @@
         <v>344.9174178121644</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,7 +6643,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6658,10 +6658,10 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
         <v>695.5020655703111</v>
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
         <v>402.7245934908938</v>
@@ -6847,7 +6847,7 @@
         <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,10 +6962,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533435</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925705</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188009</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C40" t="n">
-        <v>402.724593490894</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812164</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,7 +7333,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797742</v>
@@ -7348,13 +7348,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925707</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490406</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7424,37 +7424,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998284</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998284</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797189</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="44">
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127238</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637014</v>
+        <v>34.43939438636983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>8.609690055161071</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>8.609690055160684</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>223.0281872106954</v>
+        <v>223.0281872106964</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241567</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R9" t="n">
         <v>20.9377812015499</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>56.74261285883409</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>149.2395047512219</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>24.14662204184557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615213</v>
+        <v>98.88510599615212</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.9283711362333</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>36.65801381882781</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="T16" t="n">
-        <v>38.89198472948078</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>139.9994244361432</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>83.05123379926121</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194242</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>144.6341900408534</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>33.38525518063275</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>23.83108638657399</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194236</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194255</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>57.22910392194208</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393078</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.494940240508</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1036603.933354377</v>
+        <v>1036603.933354376</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1140984.230936231</v>
+        <v>1140984.23093623</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1140984.23093623</v>
+        <v>1140984.230936231</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1140984.23093623</v>
+        <v>1140984.230936231</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1140984.230936231</v>
+        <v>1140984.23093623</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="D2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
-        <v>256406.2354960387</v>
+        <v>256406.2354960386</v>
       </c>
       <c r="F2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="G2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="H2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="J2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="K2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="P2" t="n">
         <v>282501.3098915021</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657068</v>
+        <v>132804.2190657081</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.072392938</v>
+        <v>265413.0723929366</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.157354577</v>
+        <v>313577.1573545771</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704292</v>
+        <v>189308.268770429</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.4292641742</v>
+        <v>30877.42926417448</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049578</v>
+        <v>65018.34502049543</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273069</v>
+        <v>81897.40371273067</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202369</v>
+        <v>49839.57413202371</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252122.0652631775</v>
+        <v>252122.0652631774</v>
       </c>
       <c r="C4" t="n">
-        <v>216477.799038206</v>
+        <v>216477.7990382056</v>
       </c>
       <c r="D4" t="n">
-        <v>141542.8205525801</v>
+        <v>141542.82055258</v>
       </c>
       <c r="E4" t="n">
         <v>11671.55765715928</v>
@@ -26430,31 +26430,31 @@
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
+        <v>11776.97621680584</v>
+      </c>
+      <c r="J4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="J4" t="n">
-        <v>11776.97621680586</v>
-      </c>
       <c r="K4" t="n">
+        <v>11776.97621680584</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11776.97621680584</v>
+      </c>
+      <c r="M4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="L4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>11776.97621680579</v>
+      </c>
+      <c r="O4" t="n">
         <v>11776.97621680584</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11776.97621680583</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11776.97621680574</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667491</v>
+        <v>72593.65038667503</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984472</v>
@@ -26522,46 +26522,46 @@
         <v>-707893.2296061375</v>
       </c>
       <c r="C6" t="n">
-        <v>-134511.0490380885</v>
+        <v>-134511.0490380895</v>
       </c>
       <c r="D6" t="n">
-        <v>-212529.0459328635</v>
+        <v>-212529.0459328621</v>
       </c>
       <c r="E6" t="n">
-        <v>-153979.9645830832</v>
+        <v>-154201.0958970582</v>
       </c>
       <c r="F6" t="n">
-        <v>-19706.46491964001</v>
+        <v>-19741.20284507544</v>
       </c>
       <c r="G6" t="n">
-        <v>169601.8038507893</v>
+        <v>169567.0659253536</v>
       </c>
       <c r="H6" t="n">
-        <v>169601.8038507893</v>
+        <v>169567.0659253534</v>
       </c>
       <c r="I6" t="n">
-        <v>169601.8038507893</v>
+        <v>169567.0659253534</v>
       </c>
       <c r="J6" t="n">
-        <v>100602.6494316752</v>
+        <v>100567.9115062394</v>
       </c>
       <c r="K6" t="n">
-        <v>138724.3745866151</v>
+        <v>138689.636661179</v>
       </c>
       <c r="L6" t="n">
-        <v>104583.4588302934</v>
+        <v>104548.7209048581</v>
       </c>
       <c r="M6" t="n">
-        <v>87704.40013805857</v>
+        <v>87669.66221262285</v>
       </c>
       <c r="N6" t="n">
-        <v>119762.2297187655</v>
+        <v>119727.4917933298</v>
       </c>
       <c r="O6" t="n">
-        <v>169601.8038507893</v>
+        <v>169567.0659253534</v>
       </c>
       <c r="P6" t="n">
-        <v>169601.8038507892</v>
+        <v>169567.0659253535</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695746</v>
+        <v>717.3319511695757</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154307</v>
+        <v>383.6877278154321</v>
       </c>
       <c r="D4" t="n">
         <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490088</v>
+        <v>969.2208239490087</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000964</v>
+        <v>103.2769374000974</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479646</v>
+        <v>216.7329409479635</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974109</v>
+        <v>268.1763450974112</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267236</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139246</v>
+        <v>119.9738478139259</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846082</v>
+        <v>256.8971042846068</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489699</v>
+        <v>328.6359918489698</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506397</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139248</v>
+        <v>119.9738478139259</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846082</v>
+        <v>256.8971042846068</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489699</v>
+        <v>328.6359918489698</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506397</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139246</v>
+        <v>119.9738478139259</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846082</v>
+        <v>256.8971042846068</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489699</v>
+        <v>328.6359918489698</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506397</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>174.596860236385</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>320.7569702163818</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>28.79473182927379</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27515,16 +27515,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>167.3983583154849</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>49.21448412917574</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>14.36214484904488</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>270.7370545055325</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.18831792628072</v>
+        <v>23.1883179262793</v>
       </c>
       <c r="G5" t="n">
-        <v>28.73126316233921</v>
+        <v>28.73126316233777</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899765</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863695</v>
+        <v>99.30025118863676</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>143.3066953660374</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
@@ -27673,7 +27673,7 @@
         <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>46.52843025305071</v>
       </c>
     </row>
     <row r="6">
@@ -27698,10 +27698,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>114.3272106147303</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333228</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951733</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,16 +27743,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>172.7790567335499</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>76.80207823022157</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
         <v>116.5499160015377</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315184</v>
+        <v>119.1307056315183</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>176.9158363070823</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>71.8650240885803</v>
       </c>
       <c r="H8" t="n">
-        <v>272.1512429344554</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27907,13 +27907,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>123.3783479445743</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.70215953271074</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-7.07318341828168e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-9.616126251381013e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365122</v>
+        <v>2.883746537365127</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579056</v>
+        <v>29.53316922579061</v>
       </c>
       <c r="I5" t="n">
-        <v>111.175638381769</v>
+        <v>111.1756383817691</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756932</v>
+        <v>244.7543826756936</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023589</v>
+        <v>366.8233736023595</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952469</v>
+        <v>455.0768316952476</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791138</v>
+        <v>506.3606591791146</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284025</v>
+        <v>514.5541040284033</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974781</v>
+        <v>485.8788493974788</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562766</v>
+        <v>414.6863567562772</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.412183886888</v>
+        <v>311.4121838868885</v>
       </c>
       <c r="R5" t="n">
-        <v>181.146143427762</v>
+        <v>181.1461434277623</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020778</v>
+        <v>65.71337422020788</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731583</v>
+        <v>12.62360046731585</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892097</v>
+        <v>0.2306997229892101</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270406</v>
+        <v>1.542940423270408</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316418</v>
+        <v>14.90155619316421</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189775</v>
+        <v>53.12316808189784</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862624</v>
+        <v>145.7740335862626</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453795</v>
+        <v>249.1510419453799</v>
       </c>
       <c r="L6" t="n">
-        <v>335.014323043866</v>
+        <v>335.0143230438665</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874181</v>
+        <v>390.9459133874187</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189114</v>
+        <v>401.293088418912</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348671</v>
+        <v>367.1047769348677</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190655</v>
+        <v>294.6339480190659</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739557</v>
+        <v>196.954991573956</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392927</v>
+        <v>95.79765189392941</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399195</v>
+        <v>28.65944163399199</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989046</v>
+        <v>6.219132670989056</v>
       </c>
       <c r="U6" t="n">
-        <v>0.101509238373053</v>
+        <v>0.1015092383730532</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141856</v>
+        <v>1.293549420141858</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907942</v>
+        <v>11.50083029907943</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572055</v>
+        <v>38.90055892572061</v>
       </c>
       <c r="J7" t="n">
-        <v>91.4539440040292</v>
+        <v>91.45394400402934</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401174</v>
+        <v>150.2869235401176</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545447</v>
+        <v>192.315520154545</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773274</v>
+        <v>202.7697513773277</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022534</v>
+        <v>197.9483399022537</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669598</v>
+        <v>182.8373307669601</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960658</v>
+        <v>156.4489225960661</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266058</v>
+        <v>108.3171246266059</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565106</v>
+        <v>58.16268574565115</v>
       </c>
       <c r="S7" t="n">
-        <v>22.5430385310176</v>
+        <v>22.54303853101764</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060655</v>
+        <v>5.526983886060663</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864675</v>
+        <v>0.07055724109864688</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869143</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639237</v>
+        <v>49.49729877639238</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203915</v>
+        <v>410.2059184203916</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975125</v>
+        <v>614.7923367975126</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544654</v>
+        <v>762.7042574544655</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954558</v>
+        <v>848.6554437954559</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180165</v>
+        <v>862.3875761180167</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956802</v>
+        <v>814.3281336956803</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620356</v>
+        <v>695.0102219620358</v>
       </c>
       <c r="Q11" t="n">
         <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696628</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
         <v>0.3866504481495314</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858572</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837095</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469207</v>
+        <v>89.03390294469209</v>
       </c>
       <c r="J12" t="n">
-        <v>213.9979842891647</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598379</v>
+        <v>417.574675759838</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747747</v>
+        <v>561.4806834747748</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821477</v>
+        <v>655.2214742821478</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340503</v>
+        <v>672.5632370340504</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924472</v>
+        <v>225.1169475382831</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>493.8035753383445</v>
       </c>
       <c r="Q12" t="n">
         <v>330.0946129047539</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627652</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643798</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798453</v>
+        <v>65.19695102798454</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085355</v>
@@ -31926,28 +31926,28 @@
         <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770062</v>
+        <v>339.8400926770063</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531027</v>
+        <v>331.7594548531028</v>
       </c>
       <c r="O13" t="n">
         <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493064</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811707</v>
+        <v>97.48008457811709</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493538</v>
+        <v>37.78190904493539</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377481</v>
+        <v>9.263170188377483</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975241</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>579.8936048175474</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,7 +33047,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900694</v>
+        <v>63.70847814900733</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573784</v>
+        <v>146.7335225573789</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252596</v>
+        <v>219.3104167252603</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518411</v>
+        <v>276.0144259518419</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318116</v>
+        <v>285.1410404318124</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757913</v>
+        <v>255.7806379757921</v>
       </c>
       <c r="P5" t="n">
-        <v>183.453361001007</v>
+        <v>183.4533610010076</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243856</v>
+        <v>89.10649401243901</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959567</v>
+        <v>27.54609697475697</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710206</v>
+        <v>111.3096029710209</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639918</v>
+        <v>196.4599432639923</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653998</v>
+        <v>248.8118794654004</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355781</v>
+        <v>269.9513763355787</v>
       </c>
       <c r="O6" t="n">
-        <v>233.1182225455834</v>
+        <v>224.5085324904232</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6877278154307</v>
+        <v>383.6877278154321</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793416</v>
+        <v>56.97321748793448</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142345</v>
+        <v>128.0174317142348</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148608</v>
+        <v>219.9055454148611</v>
       </c>
       <c r="M7" t="n">
-        <v>242.353628339168</v>
+        <v>242.3536283391683</v>
       </c>
       <c r="N7" t="n">
-        <v>242.080512281482</v>
+        <v>242.0805122814823</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809995</v>
+        <v>207.4224586809998</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609593</v>
+        <v>153.7274818609596</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491138</v>
+        <v>22.15508137491155</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676415</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937052</v>
+        <v>229.1600138937053</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525319</v>
+        <v>394.702485752532</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844781</v>
+        <v>526.9378424844783</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681831</v>
+        <v>618.3092105681832</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214256</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739935</v>
+        <v>584.2299222739936</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067661</v>
+        <v>463.7772262067662</v>
       </c>
       <c r="Q11" t="n">
         <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553068</v>
+        <v>88.01360235553074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>87.16035762249798</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854789</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949005</v>
+        <v>422.9263036949006</v>
       </c>
       <c r="M12" t="n">
         <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.221524950717</v>
+        <v>541.2215249507171</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480028</v>
+        <v>82.52070309383863</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
         <v>190.1128388187324</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186273</v>
+        <v>59.91672319186276</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070197</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703702</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388468</v>
+        <v>379.4239696388469</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323313</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
         <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022141999</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776309</v>
+        <v>95.37638356776311</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36057,7 +36057,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066239</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831939</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>448.5518927342141</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
